--- a/data/trans_dic/Q25_A_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,12; 33,45</t>
+          <t>15,43; 33,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,91; 30,52</t>
+          <t>14,57; 31,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 32,41</t>
+          <t>14,23; 32,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 25,86</t>
+          <t>8,89; 26,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,0; 48,69</t>
+          <t>18,96; 46,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 52,38</t>
+          <t>24,17; 54,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 37,69</t>
+          <t>16,54; 37,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 33,09</t>
+          <t>16,18; 33,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 34,14</t>
+          <t>19,2; 34,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 35,13</t>
+          <t>19,76; 34,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 31,93</t>
+          <t>17,77; 31,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 25,71</t>
+          <t>12,86; 25,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,77; 43,33</t>
+          <t>21,19; 42,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,91; 37,19</t>
+          <t>17,81; 36,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,89; 33,35</t>
+          <t>15,73; 33,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 25,03</t>
+          <t>9,65; 25,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,15; 54,78</t>
+          <t>23,65; 53,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,23; 49,6</t>
+          <t>23,29; 50,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 39,9</t>
+          <t>17,22; 40,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,09; 41,24</t>
+          <t>20,07; 42,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,26; 42,44</t>
+          <t>24,75; 42,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 38,23</t>
+          <t>23,51; 38,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,96; 32,56</t>
+          <t>18,59; 32,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,85; 28,49</t>
+          <t>15,26; 28,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 25,02</t>
+          <t>10,56; 25,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 33,47</t>
+          <t>19,14; 33,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 31,66</t>
+          <t>17,31; 33,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 94,49</t>
+          <t>8,98; 93,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,47; 63,09</t>
+          <t>21,63; 62,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,78; 48,46</t>
+          <t>14,56; 47,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 58,56</t>
+          <t>15,29; 59,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 43,27</t>
+          <t>9,83; 41,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,54; 28,97</t>
+          <t>14,26; 29,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,52; 33,62</t>
+          <t>20,75; 33,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 33,54</t>
+          <t>18,65; 34,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 93,81</t>
+          <t>11,84; 92,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 26,73</t>
+          <t>16,88; 26,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 35,85</t>
+          <t>25,54; 36,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 32,62</t>
+          <t>20,62; 31,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,81</t>
+          <t>10,19; 19,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,09; 52,3</t>
+          <t>27,67; 51,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,83; 48,61</t>
+          <t>29,65; 49,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,62; 42,61</t>
+          <t>25,32; 43,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,63; 41,56</t>
+          <t>23,08; 41,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 29,86</t>
+          <t>20,46; 29,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,44; 37,82</t>
+          <t>28,19; 37,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,18; 32,71</t>
+          <t>23,49; 32,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 23,97</t>
+          <t>14,97; 24,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,95; 43,19</t>
+          <t>19,42; 42,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 29,02</t>
+          <t>14,92; 29,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,77; 24,89</t>
+          <t>11,03; 24,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 25,97</t>
+          <t>10,09; 26,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,72; 61,58</t>
+          <t>29,81; 59,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 44,52</t>
+          <t>22,63; 45,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,96; 43,11</t>
+          <t>21,31; 42,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,68; 40,51</t>
+          <t>19,61; 39,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,16; 45,84</t>
+          <t>26,99; 45,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 31,34</t>
+          <t>19,2; 32,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 28,34</t>
+          <t>17,27; 28,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 28,53</t>
+          <t>16,65; 28,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,4; 100,0</t>
+          <t>33,27; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,13; 100,0</t>
+          <t>15,95; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,29; 100,0</t>
+          <t>17,6; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 94,07</t>
+          <t>0,0; 87,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,29; 48,55</t>
+          <t>19,78; 48,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,4; 51,63</t>
+          <t>25,1; 52,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,01; 58,22</t>
+          <t>27,2; 56,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 30,65</t>
+          <t>7,74; 32,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,1; 51,19</t>
+          <t>24,17; 52,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,63; 54,4</t>
+          <t>30,62; 54,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,74; 58,34</t>
+          <t>29,68; 58,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,48; 36,43</t>
+          <t>11,85; 37,51</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,32; 26,98</t>
+          <t>20,47; 27,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,13</t>
+          <t>23,74; 30,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,92</t>
+          <t>20,39; 26,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 73,07</t>
+          <t>14,42; 71,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,96; 44,19</t>
+          <t>31,55; 43,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,48; 42,06</t>
+          <t>31,45; 41,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,83; 36,57</t>
+          <t>27,45; 36,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,18; 31,39</t>
+          <t>22,39; 31,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,74; 30,98</t>
+          <t>25,09; 30,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,01; 32,33</t>
+          <t>27,09; 32,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,75; 29,27</t>
+          <t>23,75; 29,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 67,85</t>
+          <t>18,54; 69,35</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de fumar hace menos tiempo (3.374 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22905</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24529</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22503</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19327</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12280</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20008</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18434</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15311</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35185</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44537</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40936</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34638</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14744; 32262</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16333; 34974</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14420; 33006</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10882; 32713</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7216; 17866</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12847; 29178</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11366; 25628</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10519; 21558</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25651; 46479</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32650; 57000</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30225; 53242</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24110; 48702</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24874</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24768</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19701</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15377</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18913</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19375</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16708</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40251</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43681</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39076</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31611</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16931; 33711</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16568; 33810</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13319; 28011</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8948; 23285</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9573; 21789</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12365; 26624</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12041; 28009</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11244; 23768</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29787; 51284</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34356; 56443</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28736; 50740</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22696; 41823</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17611</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42129</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27868</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>255226</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9978</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10439</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5501</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27589</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52568</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33368</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>260316</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10925; 26764</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31095; 53969</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19922; 38002</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30544; 316512</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5272; 15240</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5119; 16805</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2501; 9669</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2143; 9085</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18228; 38146</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40992; 65496</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24510; 44695</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42853; 336101</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56369</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>99497</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68083</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26707</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25521</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44396</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33174</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24487</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81891</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>143893</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>101257</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51194</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44589; 71243</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83282; 117672</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>54177; 83580</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18980; 36728</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17808; 33380</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33849; 56418</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25551; 44096</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17858; 32272</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67198; 98064</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>124093; 164560</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>85405; 119492</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>39478; 63476</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19197</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27252</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21469</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14207</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17087</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23023</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25069</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>19970</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>36283</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>50275</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46539</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>34177</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12338; 27175</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19137; 37401</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13923; 30653</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8619; 22816</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11338; 22794</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15943; 32206</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17090; 33884</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13671; 27367</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27406; 46381</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>38140; 63603</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35648; 58961</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25829; 43662</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4028</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3168</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13849</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>24599</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19036</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18494</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28627</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>22205</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9469</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1839; 5527</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>960; 6016</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>980; 5570</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6080</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8539; 20920</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15819; 32807</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12305; 25734</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2837; 11746</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11772; 25345</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>21134; 37444</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15078; 29682</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5173; 16371</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>145602</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>222203</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>162793</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>333841</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>94091</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>141379</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>120589</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87565</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>239692</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>363582</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>283381</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>421406</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>125287; 167006</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>196522; 251189</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>141854; 187411</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>120232; 595719</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>78394; 108845</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>122332; 162450</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>104659; 139770</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>73127; 102860</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>215932; 266554</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>329589; 397148</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>255823; 313997</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>215183; 804720</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/Q25_A_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
